--- a/biology/Zoologie/Hamadryas_chloe/Hamadryas_chloe.xlsx
+++ b/biology/Zoologie/Hamadryas_chloe/Hamadryas_chloe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hamadryas chloe est une espèce d'insectes lépidoptères de la famille des Nymphalidae, sous-famille des Biblidinae, de la tribu des Ageroniini, et du genre Hamadryas.
 </t>
@@ -511,11 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Hamadryas chloe a été décrit par l'entomologiste hollandais Caspar Stoll, en 1787, sous le nom initial de Papilio chloe [1]. Le Surinam est la localité type de cette espèce.
-Synonymie
-Papilio chloe Stoll, 1787 Protonyme</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Hamadryas chloe a été décrit par l'entomologiste hollandais Caspar Stoll, en 1787, sous le nom initial de Papilio chloe . Le Surinam est la localité type de cette espèce.</t>
         </is>
       </c>
     </row>
@@ -540,25 +552,63 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Papilio chloe Stoll, 1787 Protonyme</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hamadryas_chloe</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hamadryas_chloe</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Liste des sous-espèces
 Hamadryas chloe chloe (Stoll, 1787) (Surinam, Pérou, Colombie)
 Synonymie pour cette sous-espèce
-Ageronia nais (Fruhstorfer, 1914)[2]
+Ageronia nais (Fruhstorfer, 1914)
 Ageronia chloë colombicola (Röber, 1927)
 Ageronia chloe phocis (Fassl, 1918)
 Hamadryas chloe daphnis  (Staudinger, 1886) (Pérou, Bolivie)
 Synonymie pour cette sous-espèce
-Ageronia chloe daphnis (Staudinger, 1886) [3]
+Ageronia chloe daphnis (Staudinger, 1886) 
 Ageronia chloë nomia (Fruhstorfer, 1916)
 Ageronia chloë xenia (Fruhstorfer, 1916)
 Hamadryas chloe rhea (Fruhstorfer, 1907) (Brésil)
 Synonymie pour cette sous-espèce
-Ageronia chloë rhea (Fruhstorfer, 1907) [4]
+Ageronia chloë rhea (Fruhstorfer, 1907) 
 Ageronia chloë daphnicia (Fruhstorfer, 1916)
 Hamadryas chloe obidona (Brésil, Guyane)
 Synonymie pour cette sous-espèce (Fruhstorfer, 1914)
@@ -568,31 +618,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Hamadryas_chloe</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Hamadryas_chloe</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
